--- a/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:41:02+00:00</t>
+    <t>2023-03-01T14:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T14:07:40+00:00</t>
+    <t>2023-03-02T09:16:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T09:16:05+00:00</t>
+    <t>2023-03-02T11:49:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:49:40+00:00</t>
+    <t>2023-03-02T11:50:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
